--- a/biology/Zoologie/Desmogomphus/Desmogomphus.xlsx
+++ b/biology/Zoologie/Desmogomphus/Desmogomphus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Desmogomphus est un genre de libellules de la famille des Gomphidae (sous-ordre des Anisoptères, ordre des Odonates)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desmogomphus est un genre de libellules de la famille des Gomphidae (sous-ordre des Anisoptères, ordre des Odonates).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Desmogomphus a été créé par Edward Bruce Williamson (d) en 1920[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Desmogomphus a été créé par Edward Bruce Williamson (d) en 1920.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (29 avril 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (29 avril 2021) :
 Desmogomphus anchicayensis Amaya-Vallejo &amp; Novelo-Gutiérrez, 2012
 Desmogomphus paucinervis (Selys, 1873)
-Desmogomphus tigrivensis Williamson, 1920 - espèce type[2]</t>
+Desmogomphus tigrivensis Williamson, 1920 - espèce type</t>
         </is>
       </c>
     </row>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) E. B. Williamson, « A New Gomphine Genus from British Guiana with a Note on the Classification of the Subfamily (Order Odonata) », Occasional papers of the Museum of Zoology, University of Michigan, Ann Arbor, Inconnu, no 80,‎ 28 avril 1920, p. 1-12 (ISSN 0076-8413, lire en ligne)</t>
         </is>
